--- a/data-raw/Index - Madrid City - Districts - Neighbourhood.xlsx
+++ b/data-raw/Index - Madrid City - Districts - Neighbourhood.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcmasteru365-my.sharepoint.com/personal/soukhoa_mcmaster_ca/Documents/05. PhD Research/05_Madrid-ZBE-LEZ/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C76F0A9-1FE3-4C0F-9FA9-3075257B57AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{4C76F0A9-1FE3-4C0F-9FA9-3075257B57AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B09D4E3-8CD0-40FD-82D5-FC4021DB2D32}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{02D72158-CD49-4AB8-AAE2-BDB94EBCB1F3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{02D72158-CD49-4AB8-AAE2-BDB94EBCB1F3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
-    <sheet name="Data-Comparison" sheetId="2" r:id="rId3"/>
-    <sheet name="Vulnerability index - rank" sheetId="3" r:id="rId4"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Data-Comparison" sheetId="2" r:id="rId2"/>
+    <sheet name="Vulnerability index - rank" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1607,6 +1605,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1846,6 +1845,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1864,12 +1866,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1886,7 +1885,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2181,38 +2180,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C51389-9D25-4DCC-BFF0-32C2CF32402A}">
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>516</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{92127475-CD5A-49A1-B0DA-D7458D2EEE8A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17557DA-A60C-4894-8FDB-A555121E11FB}">
   <dimension ref="A1:BC136"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="BC9" sqref="BC9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="A5:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="12" max="12" width="11.5546875" style="19"/>
     <col min="25" max="25" width="11.5546875" style="19"/>
@@ -2222,68 +2197,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="24" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="24" t="s">
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="24" t="s">
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="24" t="s">
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="24" t="s">
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="26"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="26"/>
+      <c r="BB1" s="26"/>
+      <c r="BC1" s="27"/>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="F2" s="20"/>
@@ -2293,59 +2268,59 @@
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="20"/>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="28" t="s">
         <v>488</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="29"/>
       <c r="Y2" s="20"/>
-      <c r="Z2" s="27" t="s">
+      <c r="Z2" s="28" t="s">
         <v>488</v>
       </c>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
       <c r="AF2" s="23"/>
-      <c r="AG2" s="27" t="s">
+      <c r="AG2" s="28" t="s">
         <v>495</v>
       </c>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
       <c r="AK2" s="23"/>
-      <c r="AL2" s="27" t="s">
+      <c r="AL2" s="28" t="s">
         <v>488</v>
       </c>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="28"/>
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="28"/>
+      <c r="AT2" s="28"/>
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="28"/>
       <c r="AX2" s="23"/>
-      <c r="AY2" s="27" t="s">
+      <c r="AY2" s="28" t="s">
         <v>488</v>
       </c>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="28"/>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="29"/>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="F3" s="3" t="s">
@@ -24563,173 +24538,173 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F3C959-52B5-4BB1-A574-30F4AAA64647}">
   <dimension ref="A1:ES135"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:149" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="24" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="26"/>
-      <c r="BE1" s="24" t="s">
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="26"/>
+      <c r="BB1" s="26"/>
+      <c r="BC1" s="26"/>
+      <c r="BD1" s="27"/>
+      <c r="BE1" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="25"/>
-      <c r="BI1" s="25"/>
-      <c r="BJ1" s="25"/>
-      <c r="BK1" s="25"/>
-      <c r="BL1" s="25"/>
-      <c r="BM1" s="25"/>
-      <c r="BN1" s="25"/>
-      <c r="BO1" s="25"/>
-      <c r="BP1" s="25"/>
-      <c r="BQ1" s="25"/>
-      <c r="BR1" s="25"/>
-      <c r="BS1" s="25"/>
-      <c r="BT1" s="25"/>
-      <c r="BU1" s="25"/>
-      <c r="BV1" s="25"/>
-      <c r="BW1" s="25"/>
-      <c r="BX1" s="25"/>
-      <c r="BY1" s="26"/>
-      <c r="BZ1" s="24" t="s">
+      <c r="BF1" s="26"/>
+      <c r="BG1" s="26"/>
+      <c r="BH1" s="26"/>
+      <c r="BI1" s="26"/>
+      <c r="BJ1" s="26"/>
+      <c r="BK1" s="26"/>
+      <c r="BL1" s="26"/>
+      <c r="BM1" s="26"/>
+      <c r="BN1" s="26"/>
+      <c r="BO1" s="26"/>
+      <c r="BP1" s="26"/>
+      <c r="BQ1" s="26"/>
+      <c r="BR1" s="26"/>
+      <c r="BS1" s="26"/>
+      <c r="BT1" s="26"/>
+      <c r="BU1" s="26"/>
+      <c r="BV1" s="26"/>
+      <c r="BW1" s="26"/>
+      <c r="BX1" s="26"/>
+      <c r="BY1" s="27"/>
+      <c r="BZ1" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="CA1" s="25"/>
-      <c r="CB1" s="25"/>
-      <c r="CC1" s="25"/>
-      <c r="CD1" s="25"/>
-      <c r="CE1" s="25"/>
-      <c r="CF1" s="25"/>
-      <c r="CG1" s="25"/>
-      <c r="CH1" s="25"/>
-      <c r="CI1" s="25"/>
-      <c r="CJ1" s="25"/>
-      <c r="CK1" s="25"/>
-      <c r="CL1" s="25"/>
-      <c r="CM1" s="25"/>
-      <c r="CN1" s="26"/>
-      <c r="CO1" s="24" t="s">
+      <c r="CA1" s="26"/>
+      <c r="CB1" s="26"/>
+      <c r="CC1" s="26"/>
+      <c r="CD1" s="26"/>
+      <c r="CE1" s="26"/>
+      <c r="CF1" s="26"/>
+      <c r="CG1" s="26"/>
+      <c r="CH1" s="26"/>
+      <c r="CI1" s="26"/>
+      <c r="CJ1" s="26"/>
+      <c r="CK1" s="26"/>
+      <c r="CL1" s="26"/>
+      <c r="CM1" s="26"/>
+      <c r="CN1" s="27"/>
+      <c r="CO1" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="CP1" s="25"/>
-      <c r="CQ1" s="25"/>
-      <c r="CR1" s="25"/>
-      <c r="CS1" s="25"/>
-      <c r="CT1" s="25"/>
-      <c r="CU1" s="25"/>
-      <c r="CV1" s="25"/>
-      <c r="CW1" s="25"/>
-      <c r="CX1" s="25"/>
-      <c r="CY1" s="25"/>
-      <c r="CZ1" s="25"/>
-      <c r="DA1" s="25"/>
-      <c r="DB1" s="25"/>
-      <c r="DC1" s="25"/>
-      <c r="DD1" s="25"/>
-      <c r="DE1" s="25"/>
-      <c r="DF1" s="25"/>
-      <c r="DG1" s="25"/>
-      <c r="DH1" s="25"/>
-      <c r="DI1" s="25"/>
-      <c r="DJ1" s="25"/>
-      <c r="DK1" s="25"/>
-      <c r="DL1" s="25"/>
-      <c r="DM1" s="25"/>
-      <c r="DN1" s="25"/>
-      <c r="DO1" s="25"/>
-      <c r="DP1" s="25"/>
-      <c r="DQ1" s="25"/>
-      <c r="DR1" s="25"/>
-      <c r="DS1" s="25"/>
-      <c r="DT1" s="25"/>
-      <c r="DU1" s="25"/>
-      <c r="DV1" s="25"/>
-      <c r="DW1" s="25"/>
-      <c r="DX1" s="25"/>
-      <c r="DY1" s="25"/>
-      <c r="DZ1" s="25"/>
-      <c r="EA1" s="26"/>
-      <c r="EB1" s="24" t="s">
+      <c r="CP1" s="26"/>
+      <c r="CQ1" s="26"/>
+      <c r="CR1" s="26"/>
+      <c r="CS1" s="26"/>
+      <c r="CT1" s="26"/>
+      <c r="CU1" s="26"/>
+      <c r="CV1" s="26"/>
+      <c r="CW1" s="26"/>
+      <c r="CX1" s="26"/>
+      <c r="CY1" s="26"/>
+      <c r="CZ1" s="26"/>
+      <c r="DA1" s="26"/>
+      <c r="DB1" s="26"/>
+      <c r="DC1" s="26"/>
+      <c r="DD1" s="26"/>
+      <c r="DE1" s="26"/>
+      <c r="DF1" s="26"/>
+      <c r="DG1" s="26"/>
+      <c r="DH1" s="26"/>
+      <c r="DI1" s="26"/>
+      <c r="DJ1" s="26"/>
+      <c r="DK1" s="26"/>
+      <c r="DL1" s="26"/>
+      <c r="DM1" s="26"/>
+      <c r="DN1" s="26"/>
+      <c r="DO1" s="26"/>
+      <c r="DP1" s="26"/>
+      <c r="DQ1" s="26"/>
+      <c r="DR1" s="26"/>
+      <c r="DS1" s="26"/>
+      <c r="DT1" s="26"/>
+      <c r="DU1" s="26"/>
+      <c r="DV1" s="26"/>
+      <c r="DW1" s="26"/>
+      <c r="DX1" s="26"/>
+      <c r="DY1" s="26"/>
+      <c r="DZ1" s="26"/>
+      <c r="EA1" s="27"/>
+      <c r="EB1" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="EC1" s="25"/>
-      <c r="ED1" s="25"/>
-      <c r="EE1" s="25"/>
-      <c r="EF1" s="25"/>
-      <c r="EG1" s="25"/>
-      <c r="EH1" s="25"/>
-      <c r="EI1" s="25"/>
-      <c r="EJ1" s="25"/>
-      <c r="EK1" s="25"/>
-      <c r="EL1" s="25"/>
-      <c r="EM1" s="25"/>
-      <c r="EN1" s="25"/>
-      <c r="EO1" s="25"/>
-      <c r="EP1" s="25"/>
-      <c r="EQ1" s="25"/>
-      <c r="ER1" s="25"/>
-      <c r="ES1" s="26"/>
+      <c r="EC1" s="26"/>
+      <c r="ED1" s="26"/>
+      <c r="EE1" s="26"/>
+      <c r="EF1" s="26"/>
+      <c r="EG1" s="26"/>
+      <c r="EH1" s="26"/>
+      <c r="EI1" s="26"/>
+      <c r="EJ1" s="26"/>
+      <c r="EK1" s="26"/>
+      <c r="EL1" s="26"/>
+      <c r="EM1" s="26"/>
+      <c r="EN1" s="26"/>
+      <c r="EO1" s="26"/>
+      <c r="EP1" s="26"/>
+      <c r="EQ1" s="26"/>
+      <c r="ER1" s="26"/>
+      <c r="ES1" s="27"/>
     </row>
     <row r="2" spans="1:149" x14ac:dyDescent="0.3">
       <c r="F2" s="3"/>
@@ -84160,15 +84135,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7028D622-76B8-43A2-8E97-84744B95DB54}">
   <dimension ref="A1:E132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
@@ -86423,4 +86398,28 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C51389-9D25-4DCC-BFF0-32C2CF32402A}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>516</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{92127475-CD5A-49A1-B0DA-D7458D2EEE8A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>